--- a/DataSets/Swaps.xlsx
+++ b/DataSets/Swaps.xlsx
@@ -1,26 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonny\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonny\Documents\code\adaptableblotter-demo\DataSets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5991E95C-C2A4-4AAB-B20A-2CAF41FE3C99}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDE06BD2-3680-49DD-927D-6595851B733A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8988"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8988" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="USD_SingleSwapLeg_NEW1_CSV" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="82">
   <si>
     <t>Action</t>
   </si>
@@ -257,12 +265,21 @@
   </si>
   <si>
     <t>REC</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>Ext_1_Leg1</t>
+  </si>
+  <si>
+    <t>Ext_1_Leg2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -740,8 +757,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1096,338 +1114,297 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BB3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:BC3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.21875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="9" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="9" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="20.88671875" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="9" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="50" max="53" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" customWidth="1"/>
+    <col min="4" max="4" width="18.44140625" customWidth="1"/>
+    <col min="12" max="12" width="21.77734375" customWidth="1"/>
+    <col min="16" max="17" width="9.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AR1" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AS1" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AT1" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AU1" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AV1" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AW1" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AX1" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AY1" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AZ1" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BA1" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BB1" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BC1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" t="s">
         <v>54</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>55</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>56</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>57</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>58</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>59</v>
       </c>
-      <c r="K2">
-        <v>20190130</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="L2" s="1">
+        <v>43495</v>
+      </c>
+      <c r="M2" t="s">
         <v>60</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>61</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>200000000</v>
       </c>
-      <c r="O2">
-        <v>20190201</v>
-      </c>
-      <c r="P2">
-        <v>20240201</v>
-      </c>
-      <c r="Q2">
+      <c r="P2" s="1">
+        <v>43497</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>45323</v>
+      </c>
+      <c r="R2">
         <v>0</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>62</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>63</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>1</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>0</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>64</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>65</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>65</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>0</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>66</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>67</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>68</v>
       </c>
-      <c r="AE2" t="b">
+      <c r="AF2" t="b">
         <v>0</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AG2" t="s">
         <v>61</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AH2" t="s">
         <v>69</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AI2" t="s">
         <v>70</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AJ2" t="s">
         <v>71</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AK2" t="s">
         <v>72</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AL2" t="s">
         <v>73</v>
       </c>
-      <c r="AL2" t="s">
+      <c r="AM2" t="s">
         <v>74</v>
       </c>
-      <c r="AM2" t="s">
+      <c r="AN2" t="s">
         <v>75</v>
       </c>
-      <c r="AN2" t="b">
+      <c r="AO2" t="b">
         <v>0</v>
-      </c>
-      <c r="AQ2" t="b">
-        <v>1</v>
       </c>
       <c r="AR2" t="b">
         <v>1</v>
@@ -1435,115 +1412,118 @@
       <c r="AS2" t="b">
         <v>1</v>
       </c>
-      <c r="AT2" t="s">
+      <c r="AT2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU2" t="s">
         <v>59</v>
       </c>
-      <c r="AW2" t="s">
+      <c r="AX2" t="s">
         <v>76</v>
       </c>
-      <c r="BB2" t="s">
+      <c r="BC2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" t="s">
         <v>54</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>55</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>56</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>57</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>3</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>58</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>59</v>
       </c>
-      <c r="K3">
-        <v>20190130</v>
-      </c>
-      <c r="L3" t="s">
+      <c r="L3" s="1">
+        <v>43495</v>
+      </c>
+      <c r="M3" t="s">
         <v>77</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>61</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>200000000</v>
       </c>
-      <c r="O3">
-        <v>20190201</v>
-      </c>
-      <c r="P3">
-        <v>20240201</v>
-      </c>
-      <c r="Q3">
+      <c r="P3" s="1">
+        <v>43497</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>45323</v>
+      </c>
+      <c r="R3">
         <v>0.25</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>10</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>64</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>65</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>65</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>0</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>66</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>78</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>68</v>
       </c>
-      <c r="AE3" t="b">
+      <c r="AF3" t="b">
         <v>0</v>
       </c>
-      <c r="AF3" t="s">
+      <c r="AG3" t="s">
         <v>61</v>
       </c>
-      <c r="AG3" t="s">
+      <c r="AH3" t="s">
         <v>69</v>
       </c>
-      <c r="AH3" t="s">
+      <c r="AI3" t="s">
         <v>70</v>
       </c>
-      <c r="AI3" t="s">
+      <c r="AJ3" t="s">
         <v>71</v>
       </c>
-      <c r="AJ3" t="s">
+      <c r="AK3" t="s">
         <v>72</v>
       </c>
-      <c r="AK3" t="s">
+      <c r="AL3" t="s">
         <v>73</v>
       </c>
-      <c r="AL3" t="s">
+      <c r="AM3" t="s">
         <v>74</v>
       </c>
-      <c r="AM3" t="s">
+      <c r="AN3" t="s">
         <v>75</v>
       </c>
-      <c r="AN3" t="b">
+      <c r="AO3" t="b">
         <v>0</v>
-      </c>
-      <c r="AQ3" t="b">
-        <v>1</v>
       </c>
       <c r="AR3" t="b">
         <v>1</v>
@@ -1551,17 +1531,21 @@
       <c r="AS3" t="b">
         <v>1</v>
       </c>
-      <c r="AT3" t="s">
+      <c r="AT3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU3" t="s">
         <v>59</v>
       </c>
-      <c r="AW3" t="s">
+      <c r="AX3" t="s">
         <v>76</v>
       </c>
-      <c r="BB3" t="s">
+      <c r="BC3" t="s">
         <v>61</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>